--- a/not_in_warehouses_warehouse.xlsx
+++ b/not_in_warehouses_warehouse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,215 +457,222 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Asitis BLR2</t>
+          <t>48,1st Cross, Chowdappa layout,,Opp  Federal Bank, K Narayanapura main road,,Bengaluru,KA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BLR Adret Retail</t>
+          <t>Asitis BLR2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BNG - Bengaluru</t>
+          <t>BLR Adret Retail</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BOAT Bangalore</t>
+          <t>BNG - Bengaluru</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BVO Bangalore</t>
+          <t>BOAT Bangalore</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Decathlon BLR</t>
+          <t>BVO Bangalore</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DS_blr_mtl_HK</t>
+          <t>Decathlon BLR</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EASYECOM-RDCBLRFC4</t>
+          <t>DS_blr_mtl_HK</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Emiza supply chain services Pvt Ltd survey no 83 2 Kachanahalli Beside Kirloskar Electric company Budhihall post Nelmangala</t>
+          <t>EASYECOM-RDCBLRFC4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GIVA DEL</t>
+          <t>Emiza supply chain services Pvt Ltd survey no 83 2 Kachanahalli Beside Kirloskar Electric company Budhihall post Nelmangala</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HK BLR</t>
+          <t>GIVA DEL</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Honasa Consumer Limited Emiza Bangalore Aqua, C O Emiza Supply chain service Pvt Ltd,Sy no 83 1,Kachanahalli village, Buddihal post, Kasaba Hobli, Nelamagala ta</t>
+          <t>HK BLR</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Katha no 461 100 7, Comprised of Converted Survey No 100 4, Reserve Survey No</t>
+          <t>Honasa Consumer Limited Emiza Bangalore Aqua, C O Emiza Supply chain service Pvt Ltd,Sy no 83 1,Kachanahalli village, Buddihal post, Kasaba Hobli, Nelamagala ta</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Manash Bangalore Warehouse</t>
+          <t>Katha no 461 100 7, Comprised of Converted Survey No 100 4, Reserve Survey No</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Mathru Shree Warehouse,Survey No 83 2 ,Kachanahalli</t>
+          <t>Manash Bangalore Warehouse</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Minimalist</t>
+          <t>Mathru Shree Warehouse,Survey No 83 2 ,Kachanahalli</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Mokobara Lifestyle Pvt Ltd</t>
+          <t>Minimalist</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MW_Bangalore</t>
+          <t>Mokobara Lifestyle Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Neemans Private Limited</t>
+          <t>MW_Bangalore</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NO  33 34,1st FLOOR, BESIDE PF OFFICE , HOSUR ROAD I SINGASANDRA, BANGALORE 560068</t>
+          <t>Neemans Private Limited</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>OZiva BLR</t>
+          <t>NO  33 34,1st FLOOR, BESIDE PF OFFICE , HOSUR ROAD I SINGASANDRA, BANGALORE 560068</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Plum</t>
+          <t>OZiva BLR</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Plum Bangalore</t>
+          <t>Plum</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Prozo Bangalore</t>
+          <t>Plum Bangalore</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Snitch Apparels Pvt Ltd</t>
+          <t>Prozo Bangalore</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SNITCH APPARELS PVT LTD NEL</t>
+          <t>Snitch Apparels Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SSDC BNG</t>
+          <t>SNITCH APPARELS PVT LTD NEL</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Survey No 1 1B, 1 2P, Gangadharanapalya Village Kasaba Hobli</t>
+          <t>SSDC BNG</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sy  No  58, Malonagathihalli Village</t>
+          <t>Survey No 1 1B, 1 2P, Gangadharanapalya Village Kasaba Hobli</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Trusource Technology Private Limited</t>
+          <t>Sy  No  58, Malonagathihalli Village</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
+        <is>
+          <t>Trusource Technology Private Limited</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>TSS BLR</t>
         </is>

--- a/not_in_warehouses_warehouse.xlsx
+++ b/not_in_warehouses_warehouse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,238 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>16   1, Deganhalli Village Road, Kasaba Hobli,</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>24 2, Chikkahullur Village, Kasba Hobli,</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>48,1st Cross, Chowdappa layout,,Opp  Federal Bank, K Narayanapura main road,,Bengaluru,KA</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Asitis BLR2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>BLR Adret Retail</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>BNG - Bengaluru</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>BOAT Bangalore</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>BVO Bangalore</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Decathlon BLR</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>DS_blr_mtl_HK</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>EASYECOM-RDCBLRFC4</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Emiza supply chain services Pvt Ltd survey no 83 2 Kachanahalli Beside Kirloskar Electric company Budhihall post Nelmangala</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>GIVA DEL</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>HK BLR</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Honasa Consumer Limited Emiza Bangalore Aqua, C O Emiza Supply chain service Pvt Ltd,Sy no 83 1,Kachanahalli village, Buddihal post, Kasaba Hobli, Nelamagala ta</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Katha no 461 100 7, Comprised of Converted Survey No 100 4, Reserve Survey No</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Manash Bangalore Warehouse</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Mathru Shree Warehouse,Survey No 83 2 ,Kachanahalli</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Minimalist</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Mokobara Lifestyle Pvt Ltd</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>MW_Bangalore</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Neemans Private Limited</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>NO  33 34,1st FLOOR, BESIDE PF OFFICE , HOSUR ROAD I SINGASANDRA, BANGALORE 560068</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>OZiva BLR</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Plum</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Plum Bangalore</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Prozo Bangalore</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Snitch Apparels Pvt Ltd</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>SNITCH APPARELS PVT LTD NEL</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>SSDC BNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Survey No 1 1B, 1 2P, Gangadharanapalya Village Kasaba Hobli</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Sy  No  58, Malonagathihalli Village</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Trusource Technology Private Limited</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>TSS BLR</t>
+          <t>48,1st Cross, Chowdappa layout, Opp  Federal Bank, ,K Narayanapura main road, Thanisandra, SRK Nagar Post,Bengaluru,KA</t>
         </is>
       </c>
     </row>

--- a/not_in_warehouses_warehouse.xlsx
+++ b/not_in_warehouses_warehouse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,20 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Katha no 461 100 7, Comprised of Converted Survey No 100 4,</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SY  No  99 1, Aduru Village,</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/not_in_warehouses_warehouse.xlsx
+++ b/not_in_warehouses_warehouse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,12 +450,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Katha no 461 100 7, Comprised of Converted Survey No 100 4,</t>
+          <t>BNG_1-KYA Apparel LLP Hopscotch.in</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
+        <is>
+          <t>Katha no 461 100 7, Comprised of Converted Survey No 100 4,</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pot_Bloom_BLR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>SY  No  99 1, Aduru Village,</t>
         </is>
